--- a/posesiones/1381311.xlsx
+++ b/posesiones/1381311.xlsx
@@ -1862,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>12</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>21</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>14</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>12</v>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>20</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>26</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>20</v>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2718,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>16</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>12</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>19</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25">
         <v>10</v>
@@ -3024,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R26">
         <v>19</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3124,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R28">
         <v>15</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3462,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R36">
         <v>23</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>15</v>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R38">
         <v>19</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R40">
         <v>18</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R42">
         <v>15</v>
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R43">
         <v>19</v>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3980,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R45">
         <v>11</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4083,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R47">
         <v>13</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>35</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4483,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R55">
         <v>10</v>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4583,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R57">
         <v>22</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R60">
         <v>18</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4924,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R67">
         <v>0</v>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>14</v>
@@ -5268,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>11</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R76">
         <v>14</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R78">
         <v>31</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R80">
         <v>20</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5812,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R82">
         <v>17</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R84">
         <v>10</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6203,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6394,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R94">
         <v>7</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6591,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R98">
         <v>40</v>
@@ -6647,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>1</v>
       </c>
       <c r="P100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7017,10 +7017,10 @@
         <v>1</v>
       </c>
       <c r="P107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7070,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R108">
         <v>11</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R110">
         <v>24</v>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7373,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R114">
         <v>33</v>
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7570,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R118">
         <v>7</v>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R119">
         <v>19</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7720,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R123">
         <v>20</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7914,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8102,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8246,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R132">
         <v>0</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8393,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R135">
         <v>17</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8496,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="Q137">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R137">
         <v>23</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8599,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R139">
         <v>10</v>
@@ -8649,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8699,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R141">
         <v>21</v>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8802,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R143">
         <v>16</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9090,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R149">
         <v>3</v>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R151">
         <v>9</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9387,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R155">
         <v>0</v>
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9628,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R160">
         <v>21</v>
@@ -9678,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9728,7 +9728,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R162">
         <v>13</v>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9872,7 +9872,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R165">
         <v>15</v>
@@ -9922,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9972,7 +9972,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R167">
         <v>9</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10172,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R171">
         <v>27</v>
@@ -10222,7 +10222,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10272,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R173">
         <v>21</v>
@@ -10325,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R174">
         <v>20</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10472,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R177">
         <v>26</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10575,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R179">
         <v>19</v>
@@ -10628,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10678,7 +10678,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R181">
         <v>22</v>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10781,7 +10781,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R183">
         <v>13</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11022,7 +11022,7 @@
         <v>1</v>
       </c>
       <c r="Q188">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R188">
         <v>12</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11210,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11260,7 +11260,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R193">
         <v>20</v>
@@ -11313,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11501,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11551,7 +11551,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R199">
         <v>28</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11701,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11751,7 +11751,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R203">
         <v>12</v>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11854,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R205">
         <v>7</v>
@@ -11904,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11954,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R207">
         <v>13</v>
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12095,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12189,7 +12189,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12239,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12383,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R216">
         <v>37</v>
@@ -12436,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R217">
         <v>24</v>
@@ -12486,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12536,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R219">
         <v>22</v>
@@ -12592,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R220">
         <v>1</v>
@@ -12636,10 +12636,10 @@
         <v>1</v>
       </c>
       <c r="P221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q221">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12780,7 +12780,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12962,10 +12962,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q228">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13015,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R229">
         <v>25</v>
@@ -13068,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R230">
         <v>16</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R232">
         <v>15</v>
@@ -13221,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13268,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13365,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13412,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R237">
         <v>25</v>
@@ -13465,7 +13465,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R238">
         <v>24</v>
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13565,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13662,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R242">
         <v>29</v>
@@ -13715,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13765,7 +13765,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R244">
         <v>7</v>
@@ -13818,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13865,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13912,7 +13912,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13962,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R248">
         <v>10</v>
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14059,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14106,7 +14106,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14200,7 +14200,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14250,7 +14250,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R254">
         <v>31</v>
@@ -14300,7 +14300,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14350,7 +14350,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R256">
         <v>23</v>
@@ -14400,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14500,7 +14500,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R259">
         <v>12</v>
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14738,7 +14738,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14835,7 +14835,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14885,7 +14885,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R267">
         <v>29</v>
@@ -14935,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14979,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15023,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15073,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R271">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R272">
         <v>0</v>
@@ -15176,7 +15176,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15223,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15273,7 +15273,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R275">
         <v>22</v>
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15370,7 +15370,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R278">
         <v>0</v>
@@ -15473,7 +15473,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R279">
         <v>16</v>
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15573,7 +15573,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R281">
         <v>25</v>
@@ -15623,7 +15623,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15670,7 +15670,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15717,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15764,7 +15764,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15811,7 +15811,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15858,7 +15858,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15905,7 +15905,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15952,7 +15952,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16002,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R290">
         <v>24</v>
@@ -16055,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R291">
         <v>16</v>
@@ -16105,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16152,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16202,7 +16202,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16252,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R295">
         <v>26</v>
@@ -16302,7 +16302,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16352,7 +16352,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R297">
         <v>20</v>
@@ -16405,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R298">
         <v>23</v>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R299">
         <v>17</v>
@@ -16511,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16602,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16649,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16699,7 +16699,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R304">
         <v>25</v>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16799,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R306">
         <v>24</v>
@@ -16849,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16899,7 +16899,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16993,7 +16993,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17043,7 +17043,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17093,7 +17093,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R312">
         <v>14</v>
@@ -17143,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17190,7 +17190,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17237,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17284,7 +17284,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17334,7 +17334,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R317">
         <v>17</v>
@@ -17387,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17434,7 +17434,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17528,7 +17528,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17578,7 +17578,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R322">
         <v>10</v>
@@ -17631,7 +17631,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17772,7 +17772,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17822,7 +17822,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R327">
         <v>11</v>
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17922,7 +17922,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17972,7 +17972,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R330">
         <v>14</v>
@@ -18025,7 +18025,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18072,7 +18072,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18166,7 +18166,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18213,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18260,7 +18260,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18310,7 +18310,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R337">
         <v>10</v>
@@ -18363,7 +18363,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R338">
         <v>21</v>
@@ -18413,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18463,7 +18463,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R340">
         <v>17</v>
@@ -18507,10 +18507,10 @@
         <v>1</v>
       </c>
       <c r="P341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q341">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18557,7 +18557,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18651,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18739,10 +18739,10 @@
         <v>1</v>
       </c>
       <c r="P346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q346">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18792,7 +18792,7 @@
         <v>1</v>
       </c>
       <c r="Q347">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R347">
         <v>21</v>
@@ -18845,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18895,7 +18895,7 @@
         <v>1</v>
       </c>
       <c r="Q349">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R349">
         <v>16</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18995,7 +18995,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R351">
         <v>5</v>
@@ -19045,7 +19045,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19095,7 +19095,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R353">
         <v>24</v>
@@ -19148,7 +19148,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19198,7 +19198,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R355">
         <v>20</v>
@@ -19251,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19301,7 +19301,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R357">
         <v>18</v>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19404,7 +19404,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R359">
         <v>18</v>
@@ -19457,7 +19457,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19507,7 +19507,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R361">
         <v>5</v>
@@ -19560,7 +19560,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R362">
         <v>17</v>
@@ -19610,7 +19610,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19701,7 +19701,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19748,7 +19748,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19798,7 +19798,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R367">
         <v>15</v>
@@ -19851,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R368">
         <v>21</v>
@@ -19901,7 +19901,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19951,7 +19951,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R370">
         <v>21</v>
@@ -20001,7 +20001,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20051,7 +20051,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R372">
         <v>28</v>
@@ -20104,7 +20104,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20151,7 +20151,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20198,7 +20198,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20245,7 +20245,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20292,7 +20292,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20339,7 +20339,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20386,7 +20386,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20483,7 +20483,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R381">
         <v>3</v>
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20580,7 +20580,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20627,7 +20627,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20677,7 +20677,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20724,7 +20724,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20774,7 +20774,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20824,7 +20824,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R388">
         <v>31</v>
@@ -20877,7 +20877,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R389">
         <v>8</v>
@@ -20930,7 +20930,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R390">
         <v>30</v>
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21033,7 +21033,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R392">
         <v>5</v>
@@ -21083,7 +21083,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21133,7 +21133,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R394">
         <v>18</v>
@@ -21186,7 +21186,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R395">
         <v>12</v>
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21289,7 +21289,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R397">
         <v>15</v>
@@ -21339,7 +21339,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21430,7 +21430,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21480,7 +21480,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21530,7 +21530,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R402">
         <v>21</v>
@@ -21583,7 +21583,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21630,7 +21630,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21677,7 +21677,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21727,7 +21727,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R406">
         <v>23</v>
@@ -21780,7 +21780,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21830,7 +21830,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R408">
         <v>7</v>
@@ -21883,7 +21883,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R409">
         <v>27</v>
@@ -21933,7 +21933,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22027,7 +22027,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22074,7 +22074,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22121,7 +22121,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22168,7 +22168,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22265,7 +22265,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22315,7 +22315,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R418">
         <v>31</v>
@@ -22365,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22409,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22456,7 +22456,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22503,7 +22503,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22553,7 +22553,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R423">
         <v>31</v>
@@ -22606,7 +22606,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22656,7 +22656,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R425">
         <v>12</v>
@@ -22706,7 +22706,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22800,7 +22800,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22847,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22897,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22991,7 +22991,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23041,7 +23041,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R433">
         <v>46</v>
@@ -23094,7 +23094,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23141,7 +23141,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23188,7 +23188,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23282,7 +23282,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23332,7 +23332,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R439">
         <v>5</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23432,7 +23432,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23482,7 +23482,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R442">
         <v>24</v>
@@ -23535,7 +23535,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23629,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23679,7 +23679,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R446">
         <v>16</v>
@@ -23726,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23776,7 +23776,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R448">
         <v>2</v>
@@ -23826,7 +23826,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23867,10 +23867,10 @@
         <v>1</v>
       </c>
       <c r="P450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q450">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23917,7 +23917,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23964,7 +23964,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24005,10 +24005,10 @@
         <v>1</v>
       </c>
       <c r="P453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q453">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24058,7 +24058,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="R454">
         <v>23</v>
@@ -24108,7 +24108,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24158,7 +24158,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="R456">
         <v>5</v>
@@ -24211,7 +24211,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="R457">
         <v>23</v>
@@ -24261,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24311,7 +24311,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="R459">
         <v>22</v>
@@ -24364,7 +24364,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="R460">
         <v>18</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24558,7 +24558,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="R464">
         <v>15</v>
@@ -24608,7 +24608,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24702,7 +24702,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24749,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24796,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24846,7 +24846,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="R470">
         <v>23</v>
@@ -24899,7 +24899,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="R471">
         <v>23</v>
@@ -24949,7 +24949,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24999,7 +24999,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="R473">
         <v>20</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25102,7 +25102,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="R475">
         <v>19</v>
@@ -25152,7 +25152,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25246,7 +25246,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="R478">
         <v>6</v>
@@ -25299,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25349,7 +25349,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="R480">
         <v>24</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25449,7 +25449,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25499,7 +25499,7 @@
         <v>1</v>
       </c>
       <c r="Q483">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="R483">
         <v>10</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25602,7 +25602,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="R485">
         <v>24</v>
@@ -25655,7 +25655,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25705,7 +25705,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="R487">
         <v>5</v>
@@ -25755,7 +25755,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25802,7 +25802,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25896,7 +25896,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25943,7 +25943,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25990,7 +25990,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26040,7 +26040,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="R494">
         <v>4</v>
@@ -26093,7 +26093,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26143,7 +26143,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="R496">
         <v>6</v>
@@ -26193,7 +26193,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26240,7 +26240,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26287,7 +26287,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26334,7 +26334,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26428,7 +26428,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26475,7 +26475,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26522,7 +26522,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26569,7 +26569,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26616,7 +26616,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26666,7 +26666,7 @@
         <v>1</v>
       </c>
       <c r="Q507">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="R507">
         <v>2</v>
@@ -26719,7 +26719,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="R508">
         <v>8</v>
@@ -26772,7 +26772,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="R509">
         <v>7</v>
@@ -26825,7 +26825,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="R510">
         <v>6</v>
@@ -26869,10 +26869,10 @@
         <v>1</v>
       </c>
       <c r="P511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q511">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26913,7 +26913,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
